--- a/test_data/get_params_headers_test_data.xlsx
+++ b/test_data/get_params_headers_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="AllData" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>params</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,35 +53,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Chrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET有params和headers测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器chrome判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firefox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器Firefox判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{'params':{'show_env':1},'headers':{ 'User-Agent':'Mozilla/5.0 (Windows NT 6.1; Win64; x64)AppleWebKit/537.36 (KHTML, like Gecko)Chrome/58.0.3029.110 Safari/537.36','Accept-Encoding': 'gzip, deflate','Accept': '*/*','Connection': 'keep-alive'}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chrome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET有params和headers测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览器chrome判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Firefox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览器Firefox判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'params':{'show_env':1},'headers':{ 'User-Agent':'Mozilla/5.0 (Windows NT 6.1; Win64; x64)AppleWebKit/537.36 (KHTML, like Gecko)Chrome/58.0.3029.110 Safari/537.36','Accept-Encoding': 'gzip, deflate','Accept': '*/*','Connection': 'keep-alive'}}</t>
+    <t>headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User-Agent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -467,10 +471,11 @@
     <col min="1" max="1" width="29.75" customWidth="1"/>
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.875" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -481,12 +486,15 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -494,9 +502,15 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D3" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -514,23 +528,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="3" width="63.875" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="46.75" customWidth="1"/>
+    <col min="3" max="3" width="39.75" customWidth="1"/>
     <col min="4" max="4" width="18.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -539,32 +554,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
